--- a/textual_data/test_data.xlsx
+++ b/textual_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Google Drive\Master of AI\thesis_2\textual_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C37CBB-87FD-48F9-A7AE-5F1AB4199901}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96FD1CB-1D61-46EF-ACEF-F2F7CB620F60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="405">
   <si>
     <t>Sentences</t>
   </si>
@@ -783,24 +783,15 @@
     <t>(order units, &gt;, 39)</t>
   </si>
   <si>
-    <t>(discount %, =, 6)</t>
-  </si>
-  <si>
     <t>(customer, =, enterprise)</t>
   </si>
   <si>
-    <t>(interest rate %, =, 0.04)</t>
-  </si>
-  <si>
     <t>(insurance cost euro year, =, 100)</t>
   </si>
   <si>
     <t>(book days, !=, 30)</t>
   </si>
   <si>
-    <t>(fine  euro, =, 10)</t>
-  </si>
-  <si>
     <t>(units, &lt;, 100)</t>
   </si>
   <si>
@@ -819,9 +810,6 @@
     <t>(employee phone, =, True)</t>
   </si>
   <si>
-    <t>(temperature degrees, &gt;, 37)</t>
-  </si>
-  <si>
     <t>(work, =, False)</t>
   </si>
   <si>
@@ -864,9 +852,6 @@
     <t>(patients, =, private room)</t>
   </si>
   <si>
-    <t>(customer euro, =, 6)</t>
-  </si>
-  <si>
     <t>(package, =, priority)</t>
   </si>
   <si>
@@ -879,9 +864,6 @@
     <t>(temperature degrees, &gt;, 27)</t>
   </si>
   <si>
-    <t>(SLA, =, signed)</t>
-  </si>
-  <si>
     <t>(oftware maintenance, =, monthly base)</t>
   </si>
   <si>
@@ -897,18 +879,12 @@
     <t>(book days, !=, 30), (book, =, damaged)</t>
   </si>
   <si>
-    <t>(units, &lt;, 100), (order units, &gt;, 10000)</t>
-  </si>
-  <si>
     <t>(score, &gt;, 3.0), (reputation, =, good)</t>
   </si>
   <si>
     <t>(first day, =, True), (phone, =, False)</t>
   </si>
   <si>
-    <t>(temperature degrees, &gt;, 37), (person cough, =, True)</t>
-  </si>
-  <si>
     <t>(sales quota, =, reach), (complaints, =, False)</t>
   </si>
   <si>
@@ -942,24 +918,12 @@
     <t>(temperature degrees, &gt;, 27), (hour shift, =, 10)</t>
   </si>
   <si>
-    <t>(SLA, =, signed), (customer euros, =, 10000)</t>
-  </si>
-  <si>
     <t>(icecream, =, True), (fruit, =, True)</t>
   </si>
   <si>
-    <t>(discount %, =, 6), (extra unit, =, free)</t>
-  </si>
-  <si>
-    <t>(interest rate %, =, 0.04), (risk level, =, low)</t>
-  </si>
-  <si>
     <t>(insurance cost euro year, =, 100), (customer status, =, green)</t>
   </si>
   <si>
-    <t>(fine  euro, =, 10), (customer label, =, yellow)</t>
-  </si>
-  <si>
     <t>(stock, =, replenish), (inventory count, =, True)</t>
   </si>
   <si>
@@ -1002,27 +966,15 @@
     <t>(icecream, =, True), (bottle water, =, True)</t>
   </si>
   <si>
-    <t>(oftware maintenance, =, monthly base), (support hours, =, 24)</t>
-  </si>
-  <si>
     <t>(chance fire, =, True)</t>
   </si>
   <si>
     <t>(company, !=, operate)</t>
   </si>
   <si>
-    <t>(fine euro, =, 500)</t>
-  </si>
-  <si>
     <t>(profit, &gt;, 200000)</t>
   </si>
   <si>
-    <t>(buildings %, =, 10)</t>
-  </si>
-  <si>
-    <t>(stock market %, =, 5)</t>
-  </si>
-  <si>
     <t>(risk, &lt;, average)</t>
   </si>
   <si>
@@ -1044,21 +996,9 @@
     <t>(group, &gt;, 20)</t>
   </si>
   <si>
-    <t>(group discount %, =, 10)</t>
-  </si>
-  <si>
     <t>(discount, =, False)</t>
   </si>
   <si>
-    <t>(loan euros, &gt;, 30000)</t>
-  </si>
-  <si>
-    <t>(interest rate %, =, 0.02)</t>
-  </si>
-  <si>
-    <t>(interest rate %, =, 0.05)</t>
-  </si>
-  <si>
     <t>(customer, =, red flag)</t>
   </si>
   <si>
@@ -1107,12 +1047,6 @@
     <t>(birthday, =, True)</t>
   </si>
   <si>
-    <t>(customer discount %, =, 15)</t>
-  </si>
-  <si>
-    <t>(discount %, =, 0)</t>
-  </si>
-  <si>
     <t>(temperature degrees, &gt;, 42)</t>
   </si>
   <si>
@@ -1122,9 +1056,6 @@
     <t>(patient normal care, =, True)</t>
   </si>
   <si>
-    <t>(customer, =, vegeratian)</t>
-  </si>
-  <si>
     <t>(cheese croquettes, =, True)</t>
   </si>
   <si>
@@ -1173,9 +1104,6 @@
     <t>(ball, =, 1)</t>
   </si>
   <si>
-    <t>(travel time hours, &gt;, 10)</t>
-  </si>
-  <si>
     <t>(hotel, =, True)</t>
   </si>
   <si>
@@ -1185,12 +1113,6 @@
     <t>(fine euros, =, 500)</t>
   </si>
   <si>
-    <t>(invest buildings %, =, 10)</t>
-  </si>
-  <si>
-    <t>(stock market %, =, 5), (gold %, =, 5)</t>
-  </si>
-  <si>
     <t>(shares, =, sell), (new shares, =, buy)</t>
   </si>
   <si>
@@ -1200,12 +1122,6 @@
     <t>(discount, =, False), (entrance fee euro, =, 20)</t>
   </si>
   <si>
-    <t>(interest rate %, =, 0.05), (customer assistance, =, True)</t>
-  </si>
-  <si>
-    <t>(days, =, 0), (compensation euro, =, 300)</t>
-  </si>
-  <si>
     <t>(candy bar, =, True), (hamburger, =, True)</t>
   </si>
   <si>
@@ -1231,6 +1147,99 @@
   </si>
   <si>
     <t>(it, =, black), (days, &lt;, 10)</t>
+  </si>
+  <si>
+    <t>(software maintenance, =, monthly base)</t>
+  </si>
+  <si>
+    <t>(customer, =, vegetarian)</t>
+  </si>
+  <si>
+    <t>(interest rate, =, 0.04 %)</t>
+  </si>
+  <si>
+    <t>(discount, =, 6 %)</t>
+  </si>
+  <si>
+    <t>(order, &gt;, 39 units)</t>
+  </si>
+  <si>
+    <t>(fine, =, 10 euro)</t>
+  </si>
+  <si>
+    <t>(temperature, &gt;, 37)</t>
+  </si>
+  <si>
+    <t>(customer, =, 6 euro)</t>
+  </si>
+  <si>
+    <t>(temperature, &gt;, 27)</t>
+  </si>
+  <si>
+    <t>(signed, =, True)</t>
+  </si>
+  <si>
+    <t>(units, &lt;, 100), (order, &gt;, 10000)</t>
+  </si>
+  <si>
+    <t>(temperature, &gt;, 37), (person cough, =, True)</t>
+  </si>
+  <si>
+    <t>(signed, =, True), (customer, =, 10000 euros)</t>
+  </si>
+  <si>
+    <t>(discount, =, 6 %), (extra unit, =, free)</t>
+  </si>
+  <si>
+    <t>(interest rate, =, 0.04 %), (risk level, =, low)</t>
+  </si>
+  <si>
+    <t>(fine, =, 10 euro), (customer label, =, yellow)</t>
+  </si>
+  <si>
+    <t>(software maintenance, =, monthly base), (support, =, 24 hours)</t>
+  </si>
+  <si>
+    <t>(fine, =, 500 euro)</t>
+  </si>
+  <si>
+    <t>(stock market, =, 5 %)</t>
+  </si>
+  <si>
+    <t>(buildings, =, 10 %)</t>
+  </si>
+  <si>
+    <t>(interest rate, =, 0.05 %)</t>
+  </si>
+  <si>
+    <t>(group discount, =, 10 %)</t>
+  </si>
+  <si>
+    <t>(interest rate, =, 0.02 %)</t>
+  </si>
+  <si>
+    <t>(loan, &gt;, 30000)</t>
+  </si>
+  <si>
+    <t>(customer discount, =, 15 %)</t>
+  </si>
+  <si>
+    <t>(discount, =, 0 %)</t>
+  </si>
+  <si>
+    <t>(travel time, &gt;, 10 hours)</t>
+  </si>
+  <si>
+    <t>(invest buildings, =, 10 %)</t>
+  </si>
+  <si>
+    <t>(stock market, =, 5 %), (gold, =, 5 %)</t>
+  </si>
+  <si>
+    <t>(interest rate, =, 0.05 %), (customer assistance, =, True)</t>
+  </si>
+  <si>
+    <t>(days, =, 0), (compensation, =, 300 euro)</t>
   </si>
 </sst>
 </file>
@@ -1567,9 +1576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1661,10 +1670,10 @@
         <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="H3" t="s">
         <v>209</v>
@@ -1687,10 +1696,10 @@
         <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
         <v>209</v>
@@ -1713,10 +1722,10 @@
         <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
         <v>209</v>
@@ -1739,10 +1748,10 @@
         <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="H6" t="s">
         <v>209</v>
@@ -1765,10 +1774,10 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
         <v>209</v>
@@ -1791,10 +1800,10 @@
         <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
         <v>209</v>
@@ -1817,10 +1826,10 @@
         <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H9" t="s">
         <v>209</v>
@@ -1843,10 +1852,10 @@
         <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
         <v>209</v>
@@ -1869,10 +1878,10 @@
         <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
         <v>209</v>
@@ -1895,10 +1904,10 @@
         <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H12" t="s">
         <v>209</v>
@@ -1921,10 +1930,10 @@
         <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H13" t="s">
         <v>209</v>
@@ -1947,10 +1956,10 @@
         <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
         <v>209</v>
@@ -1973,10 +1982,10 @@
         <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
         <v>209</v>
@@ -1999,10 +2008,10 @@
         <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H16" t="s">
         <v>209</v>
@@ -2025,10 +2034,10 @@
         <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H17" t="s">
         <v>209</v>
@@ -2051,10 +2060,10 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H18" t="s">
         <v>209</v>
@@ -2077,10 +2086,10 @@
         <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H19" t="s">
         <v>209</v>
@@ -2103,7 +2112,7 @@
         <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="G20" t="s">
         <v>250</v>
@@ -2129,10 +2138,10 @@
         <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="H21" t="s">
         <v>209</v>
@@ -2155,7 +2164,7 @@
         <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
         <v>250</v>
@@ -2181,10 +2190,10 @@
         <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="H23" t="s">
         <v>209</v>
@@ -2207,10 +2216,10 @@
         <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G24" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="H24" t="s">
         <v>209</v>
@@ -2233,10 +2242,10 @@
         <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
         <v>209</v>
@@ -2259,10 +2268,10 @@
         <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="H26" t="s">
         <v>209</v>
@@ -2285,10 +2294,10 @@
         <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H27" t="s">
         <v>209</v>
@@ -2311,10 +2320,10 @@
         <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H28" t="s">
         <v>209</v>
@@ -2337,10 +2346,10 @@
         <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H29" t="s">
         <v>209</v>
@@ -2363,10 +2372,10 @@
         <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
       <c r="G30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H30" t="s">
         <v>209</v>
@@ -2389,10 +2398,10 @@
         <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H31" t="s">
         <v>209</v>
@@ -2415,10 +2424,10 @@
         <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H32" t="s">
         <v>209</v>
@@ -2441,10 +2450,10 @@
         <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
         <v>209</v>
@@ -2467,10 +2476,10 @@
         <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H34" t="s">
         <v>209</v>
@@ -2493,10 +2502,10 @@
         <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
         <v>209</v>
@@ -2519,10 +2528,10 @@
         <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G36" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H36" t="s">
         <v>209</v>
@@ -2545,10 +2554,10 @@
         <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H37" t="s">
         <v>209</v>
@@ -2571,10 +2580,10 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H38" t="s">
         <v>209</v>
@@ -2597,10 +2606,10 @@
         <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H39" t="s">
         <v>209</v>
@@ -2623,7 +2632,7 @@
         <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
         <v>250</v>
@@ -2649,10 +2658,10 @@
         <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="G41" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H41" t="s">
         <v>209</v>
@@ -2678,7 +2687,7 @@
         <v>249</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H42" t="s">
         <v>209</v>
@@ -2704,7 +2713,7 @@
         <v>251</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="H43" t="s">
         <v>209</v>
@@ -2727,10 +2736,10 @@
         <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="H44" t="s">
         <v>209</v>
@@ -2753,10 +2762,10 @@
         <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H45" t="s">
         <v>209</v>
@@ -2779,10 +2788,10 @@
         <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="H46" t="s">
         <v>209</v>
@@ -2805,10 +2814,10 @@
         <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G47" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H47" t="s">
         <v>209</v>
@@ -2831,10 +2840,10 @@
         <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G48" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H48" t="s">
         <v>209</v>
@@ -2857,10 +2866,10 @@
         <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H49" t="s">
         <v>209</v>
@@ -2883,10 +2892,10 @@
         <v>157</v>
       </c>
       <c r="F50" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="G50" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H50" t="s">
         <v>209</v>
@@ -2909,10 +2918,10 @@
         <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H51" t="s">
         <v>209</v>
@@ -2935,10 +2944,10 @@
         <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H52" t="s">
         <v>209</v>
@@ -2961,10 +2970,10 @@
         <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H53" t="s">
         <v>209</v>
@@ -2987,10 +2996,10 @@
         <v>160</v>
       </c>
       <c r="F54" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="H54" t="s">
         <v>209</v>
@@ -3013,10 +3022,10 @@
         <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G55" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H55" t="s">
         <v>209</v>
@@ -3039,10 +3048,10 @@
         <v>165</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H56" t="s">
         <v>209</v>
@@ -3065,10 +3074,10 @@
         <v>158</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G57" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H57" t="s">
         <v>209</v>
@@ -3091,10 +3100,10 @@
         <v>166</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="G58" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H58" t="s">
         <v>209</v>
@@ -3117,10 +3126,10 @@
         <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H59" t="s">
         <v>209</v>
@@ -3143,10 +3152,10 @@
         <v>163</v>
       </c>
       <c r="F60" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H60" t="s">
         <v>209</v>
@@ -3169,10 +3178,10 @@
         <v>161</v>
       </c>
       <c r="F61" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="G61" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="H61" t="s">
         <v>209</v>
@@ -3195,13 +3204,13 @@
         <v>214</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G62" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H62" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -3221,13 +3230,13 @@
         <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G63" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="H63" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3247,13 +3256,13 @@
         <v>173</v>
       </c>
       <c r="F64" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G64" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3273,13 +3282,13 @@
         <v>156</v>
       </c>
       <c r="F65" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G65" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="H65" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -3299,13 +3308,13 @@
         <v>222</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3325,13 +3334,13 @@
         <v>223</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="G67" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="H67" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3351,13 +3360,13 @@
         <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="G68" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="H68" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3377,13 +3386,13 @@
         <v>162</v>
       </c>
       <c r="F69" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="H69" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3403,13 +3412,13 @@
         <v>186</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="G70" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="H70" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3429,13 +3438,13 @@
         <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="G71" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="H71" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -3455,13 +3464,13 @@
         <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="G72" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="H72" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3481,13 +3490,13 @@
         <v>224</v>
       </c>
       <c r="F73" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="G73" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="H73" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3507,13 +3516,13 @@
         <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="G74" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H74" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -3533,13 +3542,13 @@
         <v>174</v>
       </c>
       <c r="F75" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G75" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="H75" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3559,13 +3568,13 @@
         <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G76" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="H76" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3585,13 +3594,13 @@
         <v>175</v>
       </c>
       <c r="F77" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G77" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="H77" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3611,13 +3620,13 @@
         <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="G78" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="H78" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -3637,13 +3646,13 @@
         <v>179</v>
       </c>
       <c r="F79" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="G79" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="H79" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -3663,13 +3672,13 @@
         <v>194</v>
       </c>
       <c r="F80" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="G80" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="H80" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3689,13 +3698,13 @@
         <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="G81" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="H81" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3715,13 +3724,13 @@
         <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G82" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H82" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -3741,13 +3750,13 @@
         <v>225</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G83" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="H83" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -3767,13 +3776,13 @@
         <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G84" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="H84" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -3793,13 +3802,13 @@
         <v>195</v>
       </c>
       <c r="F85" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G85" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="H85" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -3819,13 +3828,13 @@
         <v>228</v>
       </c>
       <c r="F86" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G86" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="H86" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3845,13 +3854,13 @@
         <v>226</v>
       </c>
       <c r="F87" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="G87" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="H87" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3871,13 +3880,13 @@
         <v>196</v>
       </c>
       <c r="F88" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G88" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="H88" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -3897,13 +3906,13 @@
         <v>203</v>
       </c>
       <c r="F89" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="G89" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="H89" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -3923,13 +3932,13 @@
         <v>202</v>
       </c>
       <c r="F90" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="G90" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="H90" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -3949,13 +3958,13 @@
         <v>204</v>
       </c>
       <c r="F91" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G91" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="H91" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3975,13 +3984,13 @@
         <v>205</v>
       </c>
       <c r="F92" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="G92" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H92" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -4001,13 +4010,13 @@
         <v>197</v>
       </c>
       <c r="F93" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="G93" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="H93" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
